--- a/data/items/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/data/items/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\跑团文档&amp;杂物\新建文件夹\闪7\CrazyFlashNight\data\items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16273FA-E8F6-4D68-99B1-7D707C4C44FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7600882-4552-4B2A-AEFC-BF9113D74067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="其余计算" sheetId="9" r:id="rId13"/>
     <sheet name="旧版-枪械" sheetId="1" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3061,47 +3061,46 @@
   <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8.08203125" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.08203125" customWidth="1"/>
-    <col min="8" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="10" width="7.77734375" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" customWidth="1"/>
-    <col min="13" max="13" width="7.58203125" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" customWidth="1"/>
-    <col min="21" max="21" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
-    <col min="24" max="25" width="11.1640625" customWidth="1"/>
+    <col min="24" max="25" width="11.109375" customWidth="1"/>
     <col min="26" max="26" width="7.33203125" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" customWidth="1"/>
     <col min="28" max="28" width="7.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" customWidth="1"/>
-    <col min="30" max="30" width="8.08203125" customWidth="1"/>
-    <col min="31" max="31" width="6.58203125" customWidth="1"/>
-    <col min="32" max="32" width="7.75" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" customWidth="1"/>
-    <col min="34" max="35" width="8.08203125" customWidth="1"/>
-    <col min="36" max="36" width="4.58203125" customWidth="1"/>
-    <col min="37" max="37" width="9.83203125" customWidth="1"/>
-    <col min="38" max="38" width="11.5" customWidth="1"/>
-    <col min="39" max="39" width="9.5" customWidth="1"/>
-    <col min="40" max="40" width="7.1640625" customWidth="1"/>
+    <col min="29" max="29" width="10.77734375" customWidth="1"/>
+    <col min="30" max="30" width="8.109375" customWidth="1"/>
+    <col min="31" max="31" width="6.5546875" customWidth="1"/>
+    <col min="32" max="32" width="7.77734375" customWidth="1"/>
+    <col min="33" max="33" width="10.77734375" customWidth="1"/>
+    <col min="34" max="35" width="8.109375" customWidth="1"/>
+    <col min="36" max="36" width="4.5546875" customWidth="1"/>
+    <col min="37" max="37" width="9.77734375" customWidth="1"/>
+    <col min="38" max="38" width="11.44140625" customWidth="1"/>
+    <col min="39" max="39" width="9.44140625" customWidth="1"/>
+    <col min="40" max="40" width="7.109375" customWidth="1"/>
     <col min="41" max="41" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>266</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>311</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>1.0000885216206508</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>1.005756248149515</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>0.99244001599782883</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -3672,22 +3671,22 @@
         <v>283</v>
       </c>
       <c r="D6" s="12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E6" s="12">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F6" s="12">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="G6" s="12">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H6" s="12">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I6" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="13">
         <v>1</v>
@@ -3699,61 +3698,61 @@
         <v>1</v>
       </c>
       <c r="M6" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" s="12">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="17">
         <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>7996.0978035281905</v>
+        <v>3659.4460227272725</v>
       </c>
       <c r="S6" s="17">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>8015.59672237004</v>
+        <v>3696.6239270393025</v>
       </c>
       <c r="V6">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
-        <v>7990.9464303756549</v>
+        <v>3355.49768587789</v>
       </c>
       <c r="W6">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)</f>
-        <v>42459.279336734689</v>
+        <v>12076.171875</v>
       </c>
       <c r="X6">
         <f xml:space="preserve"> (表2_5[[#This Row],[限制等级]]-1) * 1200*表2_5[[#This Row],[冲击力系数]]/(1.6^(表2_5[[#This Row],[伤害类型系数]]-1)*1.5^(表2_5[[#This Row],[双枪系数]]-1))+表2_5[[#This Row],[弹夹价格]]*5*(1+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(2+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]])</f>
-        <v>37340.282352941183</v>
+        <v>17715.2</v>
       </c>
       <c r="Y6">
         <f>表2_5[[#This Row],[平衡周期伤害]]*1.25^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>37340.282352941183</v>
+        <v>22144</v>
       </c>
       <c r="Z6">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30)*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>3813.5593220338983</v>
+        <v>2954.5454545454545</v>
       </c>
       <c r="AA6">
         <f>( ((表2_5[[#This Row],[限制等级]]*120.5))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*3/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>3789.2889126141008</v>
+        <v>2200.4717941373774</v>
       </c>
       <c r="AB6">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>4182.5384814942927</v>
+        <v>704.90056818181813</v>
       </c>
       <c r="AC6">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
-        <v>4201.6575177615541</v>
+        <v>1155.0258917405129</v>
       </c>
       <c r="AD6">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>9.4161958568738235</v>
+        <v>1.5151515151515151</v>
       </c>
       <c r="AE6">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
-        <v>9.4161958568738218</v>
+        <v>3.7878787878787881</v>
       </c>
       <c r="AF6">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
@@ -3761,42 +3760,42 @@
       </c>
       <c r="AG6">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>6554.6817081442805</v>
+        <v>3847.278989161231</v>
       </c>
       <c r="AH6">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
-        <v>849.18558673469386</v>
+        <v>966.09375</v>
       </c>
       <c r="AI6">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
-        <v>265.59183673469386</v>
+        <v>120</v>
       </c>
       <c r="AJ6">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="AK6">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
-        <v>0.98235294117647065</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AL6">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
-        <v>0.97946857421484745</v>
+        <v>1.067046922213243</v>
       </c>
       <c r="AM6">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>7996.0978035281905</v>
+        <v>3659.4460227272725</v>
       </c>
       <c r="AN6">
         <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>9435.3954081632637</v>
+        <v>4025.390625</v>
       </c>
       <c r="AO6">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>1.0030847775303164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+        <v>1.0015108103166965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>150</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>1.0142547462361438</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>151</v>
       </c>
@@ -4062,13 +4061,13 @@
         <v>0.97782698346959784</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>155</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>0.97994715911956121</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>156</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>0.9474214369427143</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>157</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>0.97501371971206363</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>149</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>0.97948039520944907</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>159</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>0.99982280617011032</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>306</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>0.90934984721551648</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4892,7 +4891,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
         <v>236</v>
@@ -4907,7 +4906,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
         <v>275</v>
@@ -4916,7 +4915,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
         <v>276</v>
@@ -4925,7 +4924,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
         <v>277</v>
@@ -4937,7 +4936,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
         <v>278</v>
@@ -4946,10 +4945,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>312</v>
@@ -4966,7 +4965,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="AL25" t="s">
         <v>90</v>
@@ -4981,7 +4980,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>303</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>181</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>304</v>
       </c>
@@ -5077,7 +5076,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>492</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>331</v>
       </c>
@@ -5134,24 +5133,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
@@ -5178,7 +5177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>135</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>子弹威力 = 100+ ( _parent._parent.空手攻击力 *1+100 ) *(1+_parent._parent.技能等级*1)+_parent._parent.等级*10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>65</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 *1+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,19 +5240,19 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 *1+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>133</v>
       </c>
@@ -5280,7 +5279,7 @@
         <v>子弹威力 = 500+ ( _parent._parent.空手攻击力 /3+100 ) *(1+_parent._parent.技能等级*1)+_parent._parent.等级*10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>65</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /3+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>69</v>
       </c>
@@ -5316,19 +5315,19 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /3+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="K17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>134</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>68</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /5 ) *( 1+_parent._parent.技能等级*1 )+1*( _parent._parent.刀属性数组[13] )</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
@@ -5406,19 +5405,19 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /5+100 ) *( 1+_parent._parent.技能等级*1 )+1*( _parent._parent.刀属性数组[13] )</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="K25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
@@ -5437,39 +5436,39 @@
       <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.58203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="6.25" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="15.75" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="10.08203125" customWidth="1"/>
-    <col min="16" max="16" width="12.9140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="9.25" customWidth="1"/>
-    <col min="22" max="23" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.25" customWidth="1"/>
-    <col min="27" max="27" width="9.75" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" customWidth="1"/>
+    <col min="22" max="23" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.21875" customWidth="1"/>
+    <col min="27" max="27" width="9.77734375" customWidth="1"/>
     <col min="28" max="28" width="11.6640625" customWidth="1"/>
     <col min="33" max="33" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>90</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -5623,7 +5622,7 @@
         <v>10762.71186440678</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>23050.847457627118</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>36864.406779661018</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>52203.389830508473</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -5946,7 +5945,7 @@
         <v>69067.796610169491</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>87457.627118644072</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>107372.88135593222</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>128813.55932203389</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>202288.13559322036</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>12</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>229830.50847457626</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>13</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>258898.30508474578</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>14</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>289491.52542372886</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>15</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>321610.16949152545</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>16</v>
       </c>
@@ -6844,7 +6843,7 @@
         <v>355254.23728813557</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>17</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>390423.72881355934</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>18</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>427118.64406779665</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>19</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>465338.98305084748</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>20</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>4288983.0508474577</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>21</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>546355.93220338982</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>22</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>589152.54237288143</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>23</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>633474.57627118647</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>24</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>679322.03389830515</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>25</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>726694.91525423725</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>26</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>775593.22033898311</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>27</v>
       </c>
@@ -7736,7 +7735,7 @@
         <v>826016.94915254239</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>28</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>877966.10169491533</v>
       </c>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>29</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>931440.67796610168</v>
       </c>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>30</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>986440.67796610168</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>31</v>
       </c>
@@ -8064,7 +8063,7 @@
         <v>1042966.1016949151</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>32</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>1101016.9491525423</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>33</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>1160593.220338983</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>34</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>1221694.9152542374</v>
       </c>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>35</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>1284322.0338983051</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>36</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>1348474.5762711866</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>37</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>1414152.5423728817</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>38</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>1481355.9322033899</v>
       </c>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>39</v>
       </c>
@@ -8704,7 +8703,7 @@
         <v>1550084.7457627119</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>40</v>
       </c>
@@ -8788,7 +8787,7 @@
         <v>1620338.9830508474</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>41</v>
       </c>
@@ -8868,7 +8867,7 @@
         <v>1692118.6440677964</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>42</v>
       </c>
@@ -8948,7 +8947,7 @@
         <v>1765423.7288135593</v>
       </c>
     </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>43</v>
       </c>
@@ -9028,7 +9027,7 @@
         <v>1840254.2372881356</v>
       </c>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>44</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>1916610.1694915255</v>
       </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>45</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>1994491.5254237286</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>46</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>2073898.3050847456</v>
       </c>
     </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>47</v>
       </c>
@@ -9348,7 +9347,7 @@
         <v>2154830.5084745763</v>
       </c>
     </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>48</v>
       </c>
@@ -9428,7 +9427,7 @@
         <v>2237288.1355932206</v>
       </c>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>49</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>2321271.1864406783</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>50</v>
       </c>
@@ -9595,7 +9594,7 @@
         <v>2406779.661016949</v>
       </c>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>51</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>2493813.559322034</v>
       </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>52</v>
       </c>
@@ -9759,7 +9758,7 @@
         <v>2582372.8813559324</v>
       </c>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>53</v>
       </c>
@@ -9839,7 +9838,7 @@
         <v>2672457.6271186443</v>
       </c>
     </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>54</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>2764067.7966101696</v>
       </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>55</v>
       </c>
@@ -9999,7 +9998,7 @@
         <v>2857203.3898305083</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>56</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>2951864.4067796613</v>
       </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>57</v>
       </c>
@@ -10159,7 +10158,7 @@
         <v>3048050.8474576273</v>
       </c>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>58</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>3145762.7118644067</v>
       </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>59</v>
       </c>
@@ -10319,7 +10318,7 @@
         <v>3245000</v>
       </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>60</v>
       </c>
@@ -10407,7 +10406,7 @@
         <v>3345762.7118644067</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>61</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>3448050.8474576273</v>
       </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>62</v>
       </c>
@@ -10567,7 +10566,7 @@
         <v>3551864.4067796608</v>
       </c>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>63</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v>3657203.3898305083</v>
       </c>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>64</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>3764067.7966101696</v>
       </c>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>65</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>3872457.6271186443</v>
       </c>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>66</v>
       </c>
@@ -10887,7 +10886,7 @@
         <v>3982372.8813559324</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>67</v>
       </c>
@@ -10967,7 +10966,7 @@
         <v>4093813.559322034</v>
       </c>
     </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>68</v>
       </c>
@@ -11047,7 +11046,7 @@
         <v>4206779.6610169495</v>
       </c>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>69</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>4321271.1864406783</v>
       </c>
     </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>70</v>
       </c>
@@ -11215,7 +11214,7 @@
         <v>4437288.1355932206</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>71</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>4554830.5084745763</v>
       </c>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>72</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>4673898.3050847454</v>
       </c>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>73</v>
       </c>
@@ -11455,7 +11454,7 @@
         <v>4794491.5254237289</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>74</v>
       </c>
@@ -11535,7 +11534,7 @@
         <v>4916610.1694915267</v>
       </c>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>75</v>
       </c>
@@ -11615,7 +11614,7 @@
         <v>5040254.2372881351</v>
       </c>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>76</v>
       </c>
@@ -11695,7 +11694,7 @@
         <v>5165423.7288135597</v>
       </c>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>77</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>5292118.6440677969</v>
       </c>
     </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>78</v>
       </c>
@@ -11855,7 +11854,7 @@
         <v>5420338.9830508474</v>
       </c>
     </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>79</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>5550084.7457627123</v>
       </c>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>80</v>
       </c>
@@ -12019,7 +12018,7 @@
         <v>5681355.9322033897</v>
       </c>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>81</v>
       </c>
@@ -12103,7 +12102,7 @@
         <v>5814152.5423728824</v>
       </c>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>82</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>5948474.5762711857</v>
       </c>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>83</v>
       </c>
@@ -12271,7 +12270,7 @@
         <v>6084322.0338983061</v>
       </c>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>84</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>6221694.9152542371</v>
       </c>
     </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>85</v>
       </c>
@@ -12439,7 +12438,7 @@
         <v>6360593.2203389835</v>
       </c>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>86</v>
       </c>
@@ -12523,7 +12522,7 @@
         <v>6501016.9491525423</v>
       </c>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>87</v>
       </c>
@@ -12607,7 +12606,7 @@
         <v>6642966.1016949154</v>
       </c>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>88</v>
       </c>
@@ -12691,7 +12690,7 @@
         <v>6786440.677966102</v>
       </c>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>89</v>
       </c>
@@ -12775,7 +12774,7 @@
         <v>6931440.677966102</v>
       </c>
     </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>90</v>
       </c>
@@ -12859,7 +12858,7 @@
         <v>7077966.1016949145</v>
       </c>
     </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>91</v>
       </c>
@@ -12943,7 +12942,7 @@
         <v>7226016.9491525423</v>
       </c>
     </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>92</v>
       </c>
@@ -13027,7 +13026,7 @@
         <v>7375593.2203389825</v>
       </c>
     </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>93</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>7526694.9152542371</v>
       </c>
     </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>94</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>7679322.0338983051</v>
       </c>
     </row>
-    <row r="101" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>95</v>
       </c>
@@ -13279,7 +13278,7 @@
         <v>7833474.5762711866</v>
       </c>
     </row>
-    <row r="102" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>96</v>
       </c>
@@ -13363,7 +13362,7 @@
         <v>7989152.5423728824</v>
       </c>
     </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>97</v>
       </c>
@@ -13447,7 +13446,7 @@
         <v>8146355.9322033906</v>
       </c>
     </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>98</v>
       </c>
@@ -13531,7 +13530,7 @@
         <v>8305084.7457627123</v>
       </c>
     </row>
-    <row r="105" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>99</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>8465338.9830508474</v>
       </c>
     </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>100</v>
       </c>
@@ -13702,7 +13701,7 @@
         <v>8627118.6440677959</v>
       </c>
     </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>40</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>620338.98305084743</v>
       </c>
     </row>
-    <row r="108" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>40</v>
       </c>
@@ -13846,7 +13845,7 @@
         <v>22372.881355932215</v>
       </c>
     </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>40</v>
       </c>
@@ -13884,7 +13883,7 @@
         <v>4016.9491525423728</v>
       </c>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>30</v>
       </c>
@@ -13906,7 +13905,7 @@
         <v>0.24842767295597482</v>
       </c>
     </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>30</v>
       </c>
@@ -13928,7 +13927,7 @@
         <v>4.0253164556962027</v>
       </c>
     </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>30</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v>382.38545360462706</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
         <v>261</v>
       </c>
@@ -13954,7 +13953,7 @@
         <v>393220.33898305101</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G115">
         <v>797627.11864406802</v>
       </c>
@@ -13974,13 +13973,13 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -13988,7 +13987,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>110</v>
       </c>
@@ -13996,7 +13995,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>111</v>
       </c>
@@ -14043,7 +14042,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>30000</v>
       </c>
@@ -14098,7 +14097,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>30000</v>
       </c>
@@ -14153,7 +14152,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>30000</v>
       </c>
@@ -14208,7 +14207,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>30000</v>
       </c>
@@ -14246,7 +14245,7 @@
         <v>2.5555555555555554</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>0</v>
       </c>
@@ -14274,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>25000</v>
       </c>
@@ -14312,7 +14311,7 @@
         <v>521.5999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -14350,7 +14349,7 @@
         <v>18960</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1000</v>
       </c>
@@ -14388,7 +14387,7 @@
         <v>3266.6666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1000</v>
       </c>
@@ -14426,7 +14425,7 @@
         <v>23.333333333333357</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>1000</v>
       </c>
@@ -14464,7 +14463,7 @@
         <v>10682.476666666664</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1000</v>
       </c>
@@ -14507,7 +14506,7 @@
         <v>10887.608549999999</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1000</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>19.500000000000004</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -14587,7 +14586,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>1000</v>
       </c>
@@ -14630,7 +14629,7 @@
         <v>9.3333333333333375</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>1000</v>
       </c>
@@ -14672,7 +14671,7 @@
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1000000</v>
       </c>
@@ -14710,7 +14709,7 @@
         <v>0.67666666666666742</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>38000</v>
       </c>
@@ -14748,7 +14747,7 @@
         <v>7.280701754385964</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>24000</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>11.527777777777777</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>50000</v>
       </c>
@@ -14828,7 +14827,7 @@
         <v>13.533333333333349</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>30000</v>
       </c>
@@ -14870,7 +14869,7 @@
         <v>22.555555555555582</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>21000+5*D29</f>
         <v>23650</v>
@@ -14917,13 +14916,13 @@
         <v>7.2222222222222215E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="S30">
         <f>18000/30</f>
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>25000+3.5*D31*0.9</f>
         <v>30670</v>
@@ -14962,7 +14961,7 @@
         <v>9.1294424519073978</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>25000+3.5*D32*0.9</f>
         <v>25866.25</v>
@@ -15001,7 +15000,7 @@
         <v>13.337843715266033</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35">
         <f>100+3*D35</f>
         <v>700</v>
@@ -15040,7 +15039,7 @@
         <v>23.80952380952381</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>500</v>
       </c>
@@ -15082,7 +15081,7 @@
         <v>120.00000000000003</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>2500</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>24.000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>30000</v>
       </c>
@@ -15162,7 +15161,7 @@
         <v>44.77777777777802</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>30000</v>
       </c>
@@ -15204,7 +15203,7 @@
         <v>26.866666666666813</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K46">
         <f>K43+K44*300</f>
         <v>243143333.33333468</v>
@@ -15225,26 +15224,26 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.4140625" customWidth="1"/>
-    <col min="9" max="9" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
     <col min="13" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="8.4140625" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" customWidth="1"/>
-    <col min="17" max="17" width="7.75" customWidth="1"/>
-    <col min="18" max="18" width="11.58203125" customWidth="1"/>
-    <col min="19" max="19" width="9.08203125" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="11.58203125" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>126</v>
       </c>
@@ -15252,7 +15251,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>123</v>
       </c>
@@ -15302,7 +15301,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>10</v>
       </c>
@@ -15346,7 +15345,7 @@
       </c>
       <c r="T4" s="41"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D5">
         <f>C4*C4*10</f>
         <v>1000</v>
@@ -15407,7 +15406,7 @@
         <v>-0.19768518518518519</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="J6">
         <v>3</v>
       </c>
@@ -15460,7 +15459,7 @@
         <v>-7.8727808240795616E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="J7">
         <v>4</v>
       </c>
@@ -15513,7 +15512,7 @@
         <v>4.7963644539871075E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>127</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>2.7710981609111642E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>90</v>
       </c>
@@ -15628,7 +15627,7 @@
         <v>3.3261790055438049E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1</v>
       </c>
@@ -15688,7 +15687,7 @@
         <v>3.4982113190733057E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>3.5407769593867988E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3</v>
       </c>
@@ -15808,7 +15807,7 @@
         <v>3.5606127026490013E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>4</v>
       </c>
@@ -15868,7 +15867,7 @@
         <v>3.5677335349373389E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>5</v>
       </c>
@@ -15928,7 +15927,7 @@
         <v>3.577190433145231E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>6</v>
       </c>
@@ -15988,7 +15987,7 @@
         <v>3.586302178675415E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>7</v>
       </c>
@@ -16040,7 +16039,7 @@
         <v>3.5985408238146728E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>8</v>
       </c>
@@ -16049,7 +16048,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>9</v>
       </c>
@@ -16058,7 +16057,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>10</v>
       </c>
@@ -16067,7 +16066,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>11</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>12</v>
       </c>
@@ -16085,7 +16084,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>13</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>14</v>
       </c>
@@ -16103,7 +16102,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>15</v>
       </c>
@@ -16121,7 +16120,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>16</v>
       </c>
@@ -16142,7 +16141,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>17</v>
       </c>
@@ -16166,7 +16165,7 @@
         <v>通用轻甲攻击套</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>18</v>
       </c>
@@ -16190,7 +16189,7 @@
         <v>通用轻甲一般套</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>19</v>
       </c>
@@ -16214,7 +16213,7 @@
         <v>通用轻甲物防套</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>20</v>
       </c>
@@ -16238,7 +16237,7 @@
         <v>通用轻甲魔抗套</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>21</v>
       </c>
@@ -16262,7 +16261,7 @@
         <v>通用轻甲血防套</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>22</v>
       </c>
@@ -16283,7 +16282,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>23</v>
       </c>
@@ -16307,7 +16306,7 @@
         <v>刀剑轻甲攻击套</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>24</v>
       </c>
@@ -16331,7 +16330,7 @@
         <v>刀剑轻甲一般套</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>25</v>
       </c>
@@ -16355,7 +16354,7 @@
         <v>刀剑轻甲物防套</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>26</v>
       </c>
@@ -16379,7 +16378,7 @@
         <v>刀剑轻甲魔抗套</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>27</v>
       </c>
@@ -16403,7 +16402,7 @@
         <v>刀剑轻甲血防套</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>28</v>
       </c>
@@ -16424,7 +16423,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>29</v>
       </c>
@@ -16448,7 +16447,7 @@
         <v>枪械轻甲攻击套</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>30</v>
       </c>
@@ -16472,7 +16471,7 @@
         <v>枪械轻甲一般套</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>31</v>
       </c>
@@ -16496,7 +16495,7 @@
         <v>枪械轻甲物防套</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>32</v>
       </c>
@@ -16520,7 +16519,7 @@
         <v>枪械轻甲魔抗套</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>33</v>
       </c>
@@ -16544,7 +16543,7 @@
         <v>枪械轻甲血防套</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>34</v>
       </c>
@@ -16565,7 +16564,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>35</v>
       </c>
@@ -16589,7 +16588,7 @@
         <v>拳皇轻甲攻击套</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>36</v>
       </c>
@@ -16613,7 +16612,7 @@
         <v>拳皇轻甲一般套</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>37</v>
       </c>
@@ -16637,7 +16636,7 @@
         <v>拳皇轻甲物防套</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>38</v>
       </c>
@@ -16661,7 +16660,7 @@
         <v>拳皇轻甲魔抗套</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>39</v>
       </c>
@@ -16685,7 +16684,7 @@
         <v>拳皇轻甲血防套</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>40</v>
       </c>
@@ -16706,7 +16705,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>41</v>
       </c>
@@ -16730,7 +16729,7 @@
         <v>刀内力轻甲攻击套</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>42</v>
       </c>
@@ -16754,7 +16753,7 @@
         <v>刀内力轻甲一般套</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>43</v>
       </c>
@@ -16778,7 +16777,7 @@
         <v>刀内力轻甲物防套</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>44</v>
       </c>
@@ -16802,7 +16801,7 @@
         <v>刀内力轻甲魔抗套</v>
       </c>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>45</v>
       </c>
@@ -16826,7 +16825,7 @@
         <v>刀内力轻甲血防套</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>46</v>
       </c>
@@ -16847,7 +16846,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>47</v>
       </c>
@@ -16871,7 +16870,7 @@
         <v>拳内力轻甲攻击套</v>
       </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>48</v>
       </c>
@@ -16895,7 +16894,7 @@
         <v>拳内力轻甲一般套</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>49</v>
       </c>
@@ -16919,7 +16918,7 @@
         <v>拳内力轻甲物防套</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>50</v>
       </c>
@@ -16943,7 +16942,7 @@
         <v>拳内力轻甲魔抗套</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>51</v>
       </c>
@@ -16967,7 +16966,7 @@
         <v>拳内力轻甲血防套</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>52</v>
       </c>
@@ -16976,7 +16975,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>53</v>
       </c>
@@ -16985,7 +16984,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>54</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>55</v>
       </c>
@@ -17003,7 +17002,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>56</v>
       </c>
@@ -17012,7 +17011,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>57</v>
       </c>
@@ -17021,7 +17020,7 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>58</v>
       </c>
@@ -17030,7 +17029,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>59</v>
       </c>
@@ -17039,7 +17038,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>60</v>
       </c>
@@ -17048,7 +17047,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>61</v>
       </c>
@@ -17057,7 +17056,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>62</v>
       </c>
@@ -17066,7 +17065,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>63</v>
       </c>
@@ -17075,7 +17074,7 @@
         <v>575000</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>64</v>
       </c>
@@ -17084,7 +17083,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>65</v>
       </c>
@@ -17093,7 +17092,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>66</v>
       </c>
@@ -17102,7 +17101,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>67</v>
       </c>
@@ -17111,7 +17110,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>68</v>
       </c>
@@ -17120,7 +17119,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>69</v>
       </c>
@@ -17129,7 +17128,7 @@
         <v>725000</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>70</v>
       </c>
@@ -17138,7 +17137,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>71</v>
       </c>
@@ -17147,7 +17146,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>72</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>73</v>
       </c>
@@ -17165,7 +17164,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>74</v>
       </c>
@@ -17174,7 +17173,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>75</v>
       </c>
@@ -17183,7 +17182,7 @@
         <v>875000</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>76</v>
       </c>
@@ -17192,7 +17191,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>77</v>
       </c>
@@ -17201,7 +17200,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>78</v>
       </c>
@@ -17210,7 +17209,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>79</v>
       </c>
@@ -17219,7 +17218,7 @@
         <v>975000</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>80</v>
       </c>
@@ -17228,7 +17227,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>81</v>
       </c>
@@ -17237,7 +17236,7 @@
         <v>1025000</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>82</v>
       </c>
@@ -17246,7 +17245,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>83</v>
       </c>
@@ -17255,7 +17254,7 @@
         <v>1075000</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>84</v>
       </c>
@@ -17264,7 +17263,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>85</v>
       </c>
@@ -17273,7 +17272,7 @@
         <v>1125000</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>86</v>
       </c>
@@ -17282,7 +17281,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>87</v>
       </c>
@@ -17291,7 +17290,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>88</v>
       </c>
@@ -17300,7 +17299,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>89</v>
       </c>
@@ -17309,7 +17308,7 @@
         <v>1225000</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>90</v>
       </c>
@@ -17318,7 +17317,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>91</v>
       </c>
@@ -17327,7 +17326,7 @@
         <v>1275000</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>92</v>
       </c>
@@ -17336,7 +17335,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>93</v>
       </c>
@@ -17345,7 +17344,7 @@
         <v>1325000</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>94</v>
       </c>
@@ -17354,7 +17353,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>95</v>
       </c>
@@ -17363,7 +17362,7 @@
         <v>1375000</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>96</v>
       </c>
@@ -17372,7 +17371,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>97</v>
       </c>
@@ -17381,7 +17380,7 @@
         <v>1425000</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>98</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>99</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>1475000</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>100</v>
       </c>
@@ -17423,34 +17422,33 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.75" customWidth="1"/>
-    <col min="8" max="8" width="8.08203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="10" width="7.77734375" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
     <col min="22" max="22" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C1" s="29" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -17479,7 +17477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -17547,7 +17545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>267</v>
       </c>
@@ -17613,7 +17611,7 @@
         <v>1.0932721712538227</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -17674,7 +17672,7 @@
         <v>0.64853932584269658</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -17686,7 +17684,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>148</v>
       </c>
@@ -17752,7 +17750,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>150</v>
       </c>
@@ -17816,7 +17814,7 @@
         <v>0.9010989010989009</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>151</v>
       </c>
@@ -17880,7 +17878,7 @@
         <v>1.0025706940874035</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>158</v>
       </c>
@@ -17895,7 +17893,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>155</v>
       </c>
@@ -17913,7 +17911,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>156</v>
       </c>
@@ -17928,7 +17926,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>157</v>
       </c>
@@ -17994,7 +17992,7 @@
         <v>1.2587412587412585</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>149</v>
       </c>
@@ -18060,7 +18058,7 @@
         <v>1.118279569892473</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>159</v>
       </c>
@@ -18124,25 +18122,25 @@
         <v>1.6709511568123394</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
@@ -18205,7 +18203,7 @@
         <v>3.0517374517374516</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -18266,10 +18264,10 @@
         <v>1.777665231704229</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>40</v>
       </c>
@@ -18277,16 +18275,16 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>41</v>
       </c>
@@ -18294,42 +18292,42 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>141</v>
       </c>
@@ -18352,25 +18350,25 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" customWidth="1"/>
-    <col min="6" max="6" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.58203125" customWidth="1"/>
-    <col min="13" max="13" width="12.08203125" customWidth="1"/>
-    <col min="19" max="20" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="19" max="20" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>184</v>
       </c>
@@ -18399,7 +18397,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -18461,7 +18459,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
@@ -18519,7 +18517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>178</v>
@@ -18575,7 +18573,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>263</v>
@@ -18631,7 +18629,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
@@ -18690,7 +18688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>150</v>
       </c>
@@ -18749,7 +18747,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>151</v>
       </c>
@@ -18808,7 +18806,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
@@ -18867,7 +18865,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>149</v>
       </c>
@@ -18926,7 +18924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>159</v>
       </c>
@@ -18942,7 +18940,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>196</v>
       </c>
@@ -18963,7 +18961,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -18979,7 +18977,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -19001,7 +18999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>493</v>
       </c>
@@ -19059,7 +19057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -19072,7 +19070,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>194</v>
       </c>
@@ -19128,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>260</v>
@@ -19182,7 +19180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -19203,7 +19201,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="24" t="s">
         <v>236</v>
@@ -19228,10 +19226,10 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
@@ -19239,16 +19237,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>41</v>
       </c>
@@ -19256,37 +19254,37 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>325</v>
       </c>
@@ -19312,19 +19310,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>14</v>
       </c>
@@ -19344,7 +19342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>39</v>
       </c>
@@ -19368,7 +19366,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -19392,32 +19390,32 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>326</v>
       </c>
@@ -19431,7 +19429,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>329</v>
       </c>
@@ -19461,15 +19459,15 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.4140625" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -19477,7 +19475,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -19504,7 +19502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>3000</v>
       </c>
@@ -19525,7 +19523,7 @@
         <v>3181.9805153394641</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>1800</v>
       </c>
@@ -19546,7 +19544,7 @@
         <v>1815.2460833714163</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
@@ -19570,12 +19568,12 @@
         <v>2640.6704633232384</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -19595,7 +19593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>1000</v>
       </c>
@@ -19613,7 +19611,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
@@ -19634,7 +19632,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="42" t="s">
         <v>277</v>
       </c>
@@ -19654,20 +19652,20 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>80</v>
       </c>
@@ -19696,7 +19694,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>87</v>
       </c>
@@ -19728,7 +19726,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -19760,7 +19758,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -19792,15 +19790,15 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -19813,18 +19811,18 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>78000</v>
+        <v>93600</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N8">
         <f>J8/K8</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>34.666666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>275</v>
       </c>
@@ -19832,7 +19830,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>315</v>
       </c>
@@ -19840,17 +19838,17 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>81</v>
       </c>
@@ -19882,7 +19880,7 @@
         <v>30.814814814814813</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>10</v>
       </c>
@@ -19908,7 +19906,7 @@
         <v>28.888888888888889</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>32</v>
       </c>
@@ -19934,7 +19932,7 @@
         <v>30.814814814814813</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
@@ -19963,37 +19961,37 @@
         <v>28.888888888888889</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>314</v>
       </c>
@@ -20013,29 +20011,29 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="16.9140625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="21" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="21" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="12.08203125" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="12.08203125" customWidth="1"/>
-    <col min="13" max="13" width="6.08203125" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
-    <col min="15" max="15" width="11.25" customWidth="1"/>
-    <col min="16" max="16" width="13.9140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -20058,7 +20056,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>49</v>
       </c>
@@ -20108,7 +20106,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
@@ -20149,7 +20147,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>177</v>
@@ -20188,7 +20186,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
@@ -20201,7 +20199,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>150</v>
       </c>
@@ -20219,7 +20217,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>151</v>
       </c>
@@ -20232,7 +20230,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
@@ -20255,7 +20253,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>149</v>
       </c>
@@ -20280,7 +20278,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>159</v>
       </c>
@@ -20303,7 +20301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>374</v>
       </c>
@@ -20316,7 +20314,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>223</v>
       </c>
@@ -20349,7 +20347,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" t="s">
         <v>227</v>
@@ -20384,7 +20382,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="D14" t="s">
         <v>228</v>
@@ -20409,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>177</v>
@@ -20441,7 +20439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="D16" t="s">
         <v>232</v>
@@ -20466,7 +20464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" t="s">
         <v>233</v>
@@ -20491,7 +20489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
@@ -20517,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="24" t="s">
         <v>236</v>
@@ -20526,16 +20524,16 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>373</v>
       </c>
@@ -20576,7 +20574,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>227</v>
@@ -20621,7 +20619,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
         <v>25</v>
@@ -20666,7 +20664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
@@ -20705,7 +20703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
@@ -20744,7 +20742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>236</v>
@@ -20761,7 +20759,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
@@ -20773,13 +20771,13 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="D29" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
@@ -20787,16 +20785,16 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -20822,17 +20820,17 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.25" customWidth="1"/>
-    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D2" s="33" t="s">
         <v>430</v>
       </c>
@@ -20864,7 +20862,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>335</v>
       </c>
@@ -20901,7 +20899,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>355</v>
       </c>
@@ -20938,7 +20936,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>359</v>
       </c>
@@ -20975,7 +20973,7 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>334</v>
       </c>
@@ -21012,7 +21010,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="24" t="s">
         <v>236</v>
       </c>
@@ -21020,22 +21018,22 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I11" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I12" s="33" t="s">
         <v>340</v>
       </c>
@@ -21052,7 +21050,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>429</v>
       </c>
@@ -21077,7 +21075,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D14" s="33" t="s">
         <v>410</v>
       </c>
@@ -21108,7 +21106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>409</v>
       </c>
@@ -21129,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>412</v>
       </c>
@@ -21150,7 +21148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>413</v>
       </c>
@@ -21171,7 +21169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>415</v>
       </c>
@@ -21195,7 +21193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>416</v>
       </c>
@@ -21219,7 +21217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>417</v>
       </c>
@@ -21243,7 +21241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>418</v>
       </c>
@@ -21267,7 +21265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>419</v>
       </c>
@@ -21288,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>428</v>
       </c>
@@ -21296,7 +21294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>421</v>
       </c>
@@ -21307,7 +21305,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
       <c r="I25" s="33" t="s">
         <v>225</v>
       </c>
@@ -21333,7 +21331,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>87</v>
       </c>
@@ -21364,7 +21362,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
       <c r="H27" s="1" t="s">
         <v>364</v>
       </c>
@@ -21395,7 +21393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
       <c r="I28" s="46" t="s">
         <v>366</v>
       </c>
@@ -21419,7 +21417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
       <c r="I29" s="46" t="s">
         <v>367</v>
       </c>
@@ -21443,7 +21441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
       <c r="I30" s="46" t="s">
         <v>368</v>
       </c>
@@ -21467,7 +21465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
       <c r="I31" s="46" t="s">
         <v>369</v>
       </c>
@@ -21491,7 +21489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
       <c r="I32" s="46" t="s">
         <v>427</v>
       </c>
@@ -21529,34 +21527,34 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="5.9140625" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" customWidth="1"/>
-    <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="8.08203125" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" customWidth="1"/>
-    <col min="11" max="11" width="7.9140625" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.58203125" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="9.9140625" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" s="33" t="s">
         <v>410</v>
       </c>
@@ -21618,7 +21616,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>480</v>
       </c>
@@ -21693,7 +21691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>496</v>
       </c>
@@ -21768,7 +21766,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>482</v>
       </c>
@@ -21843,7 +21841,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>484</v>
       </c>
@@ -21918,7 +21916,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>481</v>
       </c>
@@ -21993,7 +21991,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>472</v>
       </c>
@@ -22068,7 +22066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>483</v>
       </c>
@@ -22079,7 +22077,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -22089,7 +22087,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>149</v>
       </c>
@@ -22098,35 +22096,35 @@
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>410</v>
       </c>
@@ -22134,7 +22132,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>410</v>
       </c>
@@ -22154,7 +22152,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>409</v>
       </c>
@@ -22171,7 +22169,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>412</v>
       </c>
@@ -22188,7 +22186,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>413</v>
       </c>
@@ -22205,7 +22203,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>415</v>
       </c>
@@ -22225,7 +22223,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>416</v>
       </c>
@@ -22245,7 +22243,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>417</v>
       </c>
@@ -22268,7 +22266,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>418</v>
       </c>
@@ -22294,7 +22292,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>419</v>
       </c>
@@ -22317,7 +22315,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>420</v>
       </c>
@@ -22340,7 +22338,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>421</v>
       </c>
@@ -22363,7 +22361,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G31" s="42" t="s">
         <v>503</v>
       </c>
@@ -22371,7 +22369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>474</v>
       </c>
@@ -22392,7 +22390,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="2" t="s">
         <v>445</v>
       </c>
@@ -22412,29 +22410,29 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.9140625" customWidth="1"/>
-    <col min="11" max="11" width="4.9140625" customWidth="1"/>
-    <col min="12" max="12" width="9.4140625" customWidth="1"/>
-    <col min="13" max="13" width="9.58203125" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>90</v>
       </c>
@@ -22466,7 +22464,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -22503,7 +22501,7 @@
         <v>10762.71186440678</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -22537,7 +22535,7 @@
         <v>11525.423728813559</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
@@ -22571,7 +22569,7 @@
         <v>12288.135593220339</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
@@ -22589,7 +22587,7 @@
         <v>13050.847457627118</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -22607,7 +22605,7 @@
         <v>13813.559322033898</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>6</v>
       </c>
@@ -22625,7 +22623,7 @@
         <v>14576.271186440677</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>7</v>
       </c>
@@ -22643,7 +22641,7 @@
         <v>15338.983050847459</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>8</v>
       </c>
@@ -22661,7 +22659,7 @@
         <v>16101.694915254237</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>9</v>
       </c>
@@ -22679,7 +22677,7 @@
         <v>16864.406779661018</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>10</v>
       </c>
@@ -22697,7 +22695,7 @@
         <v>17627.118644067796</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -22718,7 +22716,7 @@
         <v>348.81355932203388</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -22736,7 +22734,7 @@
         <v>687.62711864406776</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -22754,7 +22752,7 @@
         <v>1026.4406779661017</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
@@ -22772,7 +22770,7 @@
         <v>1365.2542372881355</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>5</v>
       </c>
@@ -22790,7 +22788,7 @@
         <v>1704.0677966101694</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>6</v>
       </c>
@@ -22808,7 +22806,7 @@
         <v>2042.8813559322034</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>7</v>
       </c>
@@ -22826,7 +22824,7 @@
         <v>2381.694915254237</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>8</v>
       </c>
@@ -22851,7 +22849,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>9</v>
       </c>
@@ -22869,7 +22867,7 @@
         <v>3059.3220338983051</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>10</v>
       </c>
@@ -22887,7 +22885,7 @@
         <v>3398.1355932203387</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>11</v>
       </c>
@@ -22905,7 +22903,7 @@
         <v>3736.9491525423728</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>12</v>
       </c>
@@ -22923,7 +22921,7 @@
         <v>4075.7627118644068</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>13</v>
       </c>
@@ -22941,7 +22939,7 @@
         <v>4414.5762711864409</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>14</v>
       </c>
@@ -22959,7 +22957,7 @@
         <v>4753.389830508474</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>15</v>
       </c>
@@ -22977,7 +22975,7 @@
         <v>5092.2033898305081</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>16</v>
       </c>
@@ -22995,7 +22993,7 @@
         <v>5431.0169491525421</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>17</v>
       </c>
@@ -23013,7 +23011,7 @@
         <v>5769.8305084745762</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>18</v>
       </c>
@@ -23031,7 +23029,7 @@
         <v>6108.6440677966102</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>19</v>
       </c>
@@ -23049,7 +23047,7 @@
         <v>6447.4576271186434</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>20</v>
       </c>
@@ -23067,7 +23065,7 @@
         <v>6786.2711864406774</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>21</v>
       </c>
@@ -23085,7 +23083,7 @@
         <v>7125.0847457627115</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>22</v>
       </c>
@@ -23103,7 +23101,7 @@
         <v>7463.8983050847455</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>23</v>
       </c>
@@ -23121,7 +23119,7 @@
         <v>7802.7118644067796</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>24</v>
       </c>
@@ -23139,7 +23137,7 @@
         <v>8141.5254237288136</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>25</v>
       </c>
@@ -23157,7 +23155,7 @@
         <v>8480.3389830508477</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>26</v>
       </c>
@@ -23175,7 +23173,7 @@
         <v>8819.1525423728817</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>27</v>
       </c>
@@ -23193,7 +23191,7 @@
         <v>9157.966101694914</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>28</v>
       </c>
@@ -23211,7 +23209,7 @@
         <v>9496.779661016948</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>29</v>
       </c>
@@ -23229,7 +23227,7 @@
         <v>9835.5932203389821</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>30</v>
       </c>
@@ -23254,7 +23252,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>31</v>
       </c>
@@ -23272,7 +23270,7 @@
         <v>10513.22033898305</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>32</v>
       </c>
@@ -23290,7 +23288,7 @@
         <v>10852.033898305084</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>33</v>
       </c>
@@ -23308,7 +23306,7 @@
         <v>11190.847457627118</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>34</v>
       </c>
@@ -23326,7 +23324,7 @@
         <v>11529.661016949152</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>35</v>
       </c>
@@ -23344,7 +23342,7 @@
         <v>11868.474576271186</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>36</v>
       </c>
@@ -23362,7 +23360,7 @@
         <v>12207.28813559322</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>37</v>
       </c>
@@ -23380,7 +23378,7 @@
         <v>12546.101694915254</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>38</v>
       </c>
@@ -23398,7 +23396,7 @@
         <v>12884.915254237287</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>39</v>
       </c>
@@ -23416,7 +23414,7 @@
         <v>13223.728813559321</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>40</v>
       </c>
@@ -23441,7 +23439,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68">
         <f>SUM(F20:F128)</f>
         <v>278227.11864406784</v>

--- a/data/items/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/data/items/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\跑团文档&amp;杂物\新建文件夹\闪7\CrazyFlashNight\data\items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7600882-4552-4B2A-AEFC-BF9113D74067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16273FA-E8F6-4D68-99B1-7D707C4C44FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="其余计算" sheetId="9" r:id="rId13"/>
     <sheet name="旧版-枪械" sheetId="1" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3061,46 +3061,47 @@
   <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" customWidth="1"/>
-    <col min="8" max="10" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.08203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.08203125" customWidth="1"/>
+    <col min="8" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.75" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" customWidth="1"/>
-    <col min="21" max="21" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7.58203125" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
-    <col min="24" max="25" width="11.109375" customWidth="1"/>
+    <col min="24" max="25" width="11.1640625" customWidth="1"/>
     <col min="26" max="26" width="7.33203125" customWidth="1"/>
-    <col min="27" max="27" width="10.77734375" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" customWidth="1"/>
     <col min="28" max="28" width="7.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.77734375" customWidth="1"/>
-    <col min="30" max="30" width="8.109375" customWidth="1"/>
-    <col min="31" max="31" width="6.5546875" customWidth="1"/>
-    <col min="32" max="32" width="7.77734375" customWidth="1"/>
-    <col min="33" max="33" width="10.77734375" customWidth="1"/>
-    <col min="34" max="35" width="8.109375" customWidth="1"/>
-    <col min="36" max="36" width="4.5546875" customWidth="1"/>
-    <col min="37" max="37" width="9.77734375" customWidth="1"/>
-    <col min="38" max="38" width="11.44140625" customWidth="1"/>
-    <col min="39" max="39" width="9.44140625" customWidth="1"/>
-    <col min="40" max="40" width="7.109375" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" customWidth="1"/>
+    <col min="30" max="30" width="8.08203125" customWidth="1"/>
+    <col min="31" max="31" width="6.58203125" customWidth="1"/>
+    <col min="32" max="32" width="7.75" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" customWidth="1"/>
+    <col min="34" max="35" width="8.08203125" customWidth="1"/>
+    <col min="36" max="36" width="4.58203125" customWidth="1"/>
+    <col min="37" max="37" width="9.83203125" customWidth="1"/>
+    <col min="38" max="38" width="11.5" customWidth="1"/>
+    <col min="39" max="39" width="9.5" customWidth="1"/>
+    <col min="40" max="40" width="7.1640625" customWidth="1"/>
     <col min="41" max="41" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>266</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>311</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>1.0000885216206508</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>1.005756248149515</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>0.99244001599782883</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -3671,22 +3672,22 @@
         <v>283</v>
       </c>
       <c r="D6" s="12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F6" s="12">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="G6" s="12">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H6" s="12">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I6" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="13">
         <v>1</v>
@@ -3698,61 +3699,61 @@
         <v>1</v>
       </c>
       <c r="M6" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" s="12">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="O6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="17">
         <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>3659.4460227272725</v>
+        <v>7996.0978035281905</v>
       </c>
       <c r="S6" s="17">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>3696.6239270393025</v>
+        <v>8015.59672237004</v>
       </c>
       <c r="V6">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
-        <v>3355.49768587789</v>
+        <v>7990.9464303756549</v>
       </c>
       <c r="W6">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)</f>
-        <v>12076.171875</v>
+        <v>42459.279336734689</v>
       </c>
       <c r="X6">
         <f xml:space="preserve"> (表2_5[[#This Row],[限制等级]]-1) * 1200*表2_5[[#This Row],[冲击力系数]]/(1.6^(表2_5[[#This Row],[伤害类型系数]]-1)*1.5^(表2_5[[#This Row],[双枪系数]]-1))+表2_5[[#This Row],[弹夹价格]]*5*(1+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(2+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]])</f>
-        <v>17715.2</v>
+        <v>37340.282352941183</v>
       </c>
       <c r="Y6">
         <f>表2_5[[#This Row],[平衡周期伤害]]*1.25^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>22144</v>
+        <v>37340.282352941183</v>
       </c>
       <c r="Z6">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30)*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>2954.5454545454545</v>
+        <v>3813.5593220338983</v>
       </c>
       <c r="AA6">
         <f>( ((表2_5[[#This Row],[限制等级]]*120.5))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*3/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>2200.4717941373774</v>
+        <v>3789.2889126141008</v>
       </c>
       <c r="AB6">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>704.90056818181813</v>
+        <v>4182.5384814942927</v>
       </c>
       <c r="AC6">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
-        <v>1155.0258917405129</v>
+        <v>4201.6575177615541</v>
       </c>
       <c r="AD6">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>1.5151515151515151</v>
+        <v>9.4161958568738235</v>
       </c>
       <c r="AE6">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
-        <v>3.7878787878787881</v>
+        <v>9.4161958568738218</v>
       </c>
       <c r="AF6">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
@@ -3760,42 +3761,42 @@
       </c>
       <c r="AG6">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>3847.278989161231</v>
+        <v>6554.6817081442805</v>
       </c>
       <c r="AH6">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
-        <v>966.09375</v>
+        <v>849.18558673469386</v>
       </c>
       <c r="AI6">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
-        <v>120</v>
+        <v>265.59183673469386</v>
       </c>
       <c r="AJ6">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AK6">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
-        <v>0.93333333333333335</v>
+        <v>0.98235294117647065</v>
       </c>
       <c r="AL6">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
-        <v>1.067046922213243</v>
+        <v>0.97946857421484745</v>
       </c>
       <c r="AM6">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>3659.4460227272725</v>
+        <v>7996.0978035281905</v>
       </c>
       <c r="AN6">
         <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>4025.390625</v>
+        <v>9435.3954081632637</v>
       </c>
       <c r="AO6">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>1.0015108103166965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+        <v>1.0030847775303164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>150</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>1.0142547462361438</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>151</v>
       </c>
@@ -4061,13 +4062,13 @@
         <v>0.97782698346959784</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>155</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>0.97994715911956121</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>156</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>0.9474214369427143</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>157</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>0.97501371971206363</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>149</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>0.97948039520944907</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>159</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>0.99982280617011032</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>306</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>0.90934984721551648</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4891,7 +4892,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
         <v>236</v>
@@ -4906,7 +4907,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
         <v>275</v>
@@ -4915,7 +4916,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
         <v>276</v>
@@ -4924,7 +4925,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
         <v>277</v>
@@ -4936,7 +4937,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
         <v>278</v>
@@ -4945,10 +4946,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>312</v>
@@ -4965,7 +4966,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="AL25" t="s">
         <v>90</v>
@@ -4980,7 +4981,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
@@ -5004,7 +5005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>303</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>181</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>304</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>492</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>331</v>
       </c>
@@ -5133,24 +5134,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>135</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>子弹威力 = 100+ ( _parent._parent.空手攻击力 *1+100 ) *(1+_parent._parent.技能等级*1)+_parent._parent.等级*10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>65</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 *1+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,19 +5241,19 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 *1+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>133</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>子弹威力 = 500+ ( _parent._parent.空手攻击力 /3+100 ) *(1+_parent._parent.技能等级*1)+_parent._parent.等级*10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>65</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /3+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>69</v>
       </c>
@@ -5315,19 +5316,19 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /3+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>134</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>68</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /5 ) *( 1+_parent._parent.技能等级*1 )+1*( _parent._parent.刀属性数组[13] )</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
@@ -5405,19 +5406,19 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /5+100 ) *( 1+_parent._parent.技能等级*1 )+1*( _parent._parent.刀属性数组[13] )</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
@@ -5436,39 +5437,39 @@
       <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="6.25" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="10.08203125" customWidth="1"/>
+    <col min="16" max="16" width="12.9140625" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="9.21875" customWidth="1"/>
-    <col min="22" max="23" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.21875" customWidth="1"/>
-    <col min="27" max="27" width="9.77734375" customWidth="1"/>
+    <col min="18" max="18" width="9.25" customWidth="1"/>
+    <col min="22" max="23" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.25" customWidth="1"/>
+    <col min="27" max="27" width="9.75" customWidth="1"/>
     <col min="28" max="28" width="11.6640625" customWidth="1"/>
     <col min="33" max="33" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>90</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -5622,7 +5623,7 @@
         <v>10762.71186440678</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>23050.847457627118</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>36864.406779661018</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>52203.389830508473</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>69067.796610169491</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
@@ -6025,7 +6026,7 @@
         <v>87457.627118644072</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>107372.88135593222</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>128813.55932203389</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>11</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>202288.13559322036</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>12</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>229830.50847457626</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>13</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>258898.30508474578</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>14</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>289491.52542372886</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>15</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>321610.16949152545</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>16</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>355254.23728813557</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>17</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>390423.72881355934</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>18</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>427118.64406779665</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>19</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>465338.98305084748</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>20</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v>4288983.0508474577</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>21</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>546355.93220338982</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>22</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>589152.54237288143</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>23</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>633474.57627118647</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>24</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>679322.03389830515</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>25</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>726694.91525423725</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>26</v>
       </c>
@@ -7655,7 +7656,7 @@
         <v>775593.22033898311</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>27</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>826016.94915254239</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>28</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>877966.10169491533</v>
       </c>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>29</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>931440.67796610168</v>
       </c>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>30</v>
       </c>
@@ -7983,7 +7984,7 @@
         <v>986440.67796610168</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>31</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>1042966.1016949151</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>32</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>1101016.9491525423</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>33</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>1160593.220338983</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>34</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>1221694.9152542374</v>
       </c>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>35</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>1284322.0338983051</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>36</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>1348474.5762711866</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>37</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>1414152.5423728817</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>38</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>1481355.9322033899</v>
       </c>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>39</v>
       </c>
@@ -8703,7 +8704,7 @@
         <v>1550084.7457627119</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>40</v>
       </c>
@@ -8787,7 +8788,7 @@
         <v>1620338.9830508474</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>41</v>
       </c>
@@ -8867,7 +8868,7 @@
         <v>1692118.6440677964</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>42</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>1765423.7288135593</v>
       </c>
     </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>43</v>
       </c>
@@ -9027,7 +9028,7 @@
         <v>1840254.2372881356</v>
       </c>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>44</v>
       </c>
@@ -9107,7 +9108,7 @@
         <v>1916610.1694915255</v>
       </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>45</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>1994491.5254237286</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>46</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>2073898.3050847456</v>
       </c>
     </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>47</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>2154830.5084745763</v>
       </c>
     </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>48</v>
       </c>
@@ -9427,7 +9428,7 @@
         <v>2237288.1355932206</v>
       </c>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>49</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>2321271.1864406783</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>50</v>
       </c>
@@ -9594,7 +9595,7 @@
         <v>2406779.661016949</v>
       </c>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>51</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>2493813.559322034</v>
       </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>52</v>
       </c>
@@ -9758,7 +9759,7 @@
         <v>2582372.8813559324</v>
       </c>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>53</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>2672457.6271186443</v>
       </c>
     </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>54</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>2764067.7966101696</v>
       </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>55</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>2857203.3898305083</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>56</v>
       </c>
@@ -10078,7 +10079,7 @@
         <v>2951864.4067796613</v>
       </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>57</v>
       </c>
@@ -10158,7 +10159,7 @@
         <v>3048050.8474576273</v>
       </c>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>58</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>3145762.7118644067</v>
       </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>59</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>3245000</v>
       </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>60</v>
       </c>
@@ -10406,7 +10407,7 @@
         <v>3345762.7118644067</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>61</v>
       </c>
@@ -10486,7 +10487,7 @@
         <v>3448050.8474576273</v>
       </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>62</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>3551864.4067796608</v>
       </c>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>63</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v>3657203.3898305083</v>
       </c>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>64</v>
       </c>
@@ -10726,7 +10727,7 @@
         <v>3764067.7966101696</v>
       </c>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>65</v>
       </c>
@@ -10806,7 +10807,7 @@
         <v>3872457.6271186443</v>
       </c>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>66</v>
       </c>
@@ -10886,7 +10887,7 @@
         <v>3982372.8813559324</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>67</v>
       </c>
@@ -10966,7 +10967,7 @@
         <v>4093813.559322034</v>
       </c>
     </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>68</v>
       </c>
@@ -11046,7 +11047,7 @@
         <v>4206779.6610169495</v>
       </c>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>69</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>4321271.1864406783</v>
       </c>
     </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>70</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>4437288.1355932206</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>71</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>4554830.5084745763</v>
       </c>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>72</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>4673898.3050847454</v>
       </c>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>73</v>
       </c>
@@ -11454,7 +11455,7 @@
         <v>4794491.5254237289</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>74</v>
       </c>
@@ -11534,7 +11535,7 @@
         <v>4916610.1694915267</v>
       </c>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>75</v>
       </c>
@@ -11614,7 +11615,7 @@
         <v>5040254.2372881351</v>
       </c>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>76</v>
       </c>
@@ -11694,7 +11695,7 @@
         <v>5165423.7288135597</v>
       </c>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>77</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>5292118.6440677969</v>
       </c>
     </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>78</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>5420338.9830508474</v>
       </c>
     </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>79</v>
       </c>
@@ -11934,7 +11935,7 @@
         <v>5550084.7457627123</v>
       </c>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>80</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>5681355.9322033897</v>
       </c>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>81</v>
       </c>
@@ -12102,7 +12103,7 @@
         <v>5814152.5423728824</v>
       </c>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>82</v>
       </c>
@@ -12186,7 +12187,7 @@
         <v>5948474.5762711857</v>
       </c>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>83</v>
       </c>
@@ -12270,7 +12271,7 @@
         <v>6084322.0338983061</v>
       </c>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>84</v>
       </c>
@@ -12354,7 +12355,7 @@
         <v>6221694.9152542371</v>
       </c>
     </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>85</v>
       </c>
@@ -12438,7 +12439,7 @@
         <v>6360593.2203389835</v>
       </c>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>86</v>
       </c>
@@ -12522,7 +12523,7 @@
         <v>6501016.9491525423</v>
       </c>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>87</v>
       </c>
@@ -12606,7 +12607,7 @@
         <v>6642966.1016949154</v>
       </c>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>88</v>
       </c>
@@ -12690,7 +12691,7 @@
         <v>6786440.677966102</v>
       </c>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>89</v>
       </c>
@@ -12774,7 +12775,7 @@
         <v>6931440.677966102</v>
       </c>
     </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>90</v>
       </c>
@@ -12858,7 +12859,7 @@
         <v>7077966.1016949145</v>
       </c>
     </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>91</v>
       </c>
@@ -12942,7 +12943,7 @@
         <v>7226016.9491525423</v>
       </c>
     </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>92</v>
       </c>
@@ -13026,7 +13027,7 @@
         <v>7375593.2203389825</v>
       </c>
     </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>93</v>
       </c>
@@ -13110,7 +13111,7 @@
         <v>7526694.9152542371</v>
       </c>
     </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>94</v>
       </c>
@@ -13194,7 +13195,7 @@
         <v>7679322.0338983051</v>
       </c>
     </row>
-    <row r="101" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>95</v>
       </c>
@@ -13278,7 +13279,7 @@
         <v>7833474.5762711866</v>
       </c>
     </row>
-    <row r="102" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>96</v>
       </c>
@@ -13362,7 +13363,7 @@
         <v>7989152.5423728824</v>
       </c>
     </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>97</v>
       </c>
@@ -13446,7 +13447,7 @@
         <v>8146355.9322033906</v>
       </c>
     </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>98</v>
       </c>
@@ -13530,7 +13531,7 @@
         <v>8305084.7457627123</v>
       </c>
     </row>
-    <row r="105" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>99</v>
       </c>
@@ -13614,7 +13615,7 @@
         <v>8465338.9830508474</v>
       </c>
     </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>100</v>
       </c>
@@ -13701,7 +13702,7 @@
         <v>8627118.6440677959</v>
       </c>
     </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>40</v>
       </c>
@@ -13773,7 +13774,7 @@
         <v>620338.98305084743</v>
       </c>
     </row>
-    <row r="108" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>40</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>22372.881355932215</v>
       </c>
     </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>40</v>
       </c>
@@ -13883,7 +13884,7 @@
         <v>4016.9491525423728</v>
       </c>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>30</v>
       </c>
@@ -13905,7 +13906,7 @@
         <v>0.24842767295597482</v>
       </c>
     </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>30</v>
       </c>
@@ -13927,7 +13928,7 @@
         <v>4.0253164556962027</v>
       </c>
     </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>30</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>382.38545360462706</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
         <v>261</v>
       </c>
@@ -13953,7 +13954,7 @@
         <v>393220.33898305101</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G115">
         <v>797627.11864406802</v>
       </c>
@@ -13973,13 +13974,13 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>110</v>
       </c>
@@ -13995,7 +13996,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>111</v>
       </c>
@@ -14042,7 +14043,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>30000</v>
       </c>
@@ -14097,7 +14098,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>30000</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>30000</v>
       </c>
@@ -14207,7 +14208,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>30000</v>
       </c>
@@ -14245,7 +14246,7 @@
         <v>2.5555555555555554</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>0</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>25000</v>
       </c>
@@ -14311,7 +14312,7 @@
         <v>521.5999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -14349,7 +14350,7 @@
         <v>18960</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>1000</v>
       </c>
@@ -14387,7 +14388,7 @@
         <v>3266.6666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>1000</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>23.333333333333357</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>1000</v>
       </c>
@@ -14463,7 +14464,7 @@
         <v>10682.476666666664</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>1000</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>10887.608549999999</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>1000</v>
       </c>
@@ -14548,7 +14549,7 @@
         <v>19.500000000000004</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -14586,7 +14587,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>1000</v>
       </c>
@@ -14629,7 +14630,7 @@
         <v>9.3333333333333375</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>1000</v>
       </c>
@@ -14671,7 +14672,7 @@
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>1000000</v>
       </c>
@@ -14709,7 +14710,7 @@
         <v>0.67666666666666742</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>38000</v>
       </c>
@@ -14747,7 +14748,7 @@
         <v>7.280701754385964</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>24000</v>
       </c>
@@ -14789,7 +14790,7 @@
         <v>11.527777777777777</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>50000</v>
       </c>
@@ -14827,7 +14828,7 @@
         <v>13.533333333333349</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>30000</v>
       </c>
@@ -14869,7 +14870,7 @@
         <v>22.555555555555582</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C29">
         <f>21000+5*D29</f>
         <v>23650</v>
@@ -14916,13 +14917,13 @@
         <v>7.2222222222222215E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
       <c r="S30">
         <f>18000/30</f>
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>25000+3.5*D31*0.9</f>
         <v>30670</v>
@@ -14961,7 +14962,7 @@
         <v>9.1294424519073978</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C32">
         <f>25000+3.5*D32*0.9</f>
         <v>25866.25</v>
@@ -15000,7 +15001,7 @@
         <v>13.337843715266033</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C35">
         <f>100+3*D35</f>
         <v>700</v>
@@ -15039,7 +15040,7 @@
         <v>23.80952380952381</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>500</v>
       </c>
@@ -15081,7 +15082,7 @@
         <v>120.00000000000003</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>2500</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>24.000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>30000</v>
       </c>
@@ -15161,7 +15162,7 @@
         <v>44.77777777777802</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>30000</v>
       </c>
@@ -15203,7 +15204,7 @@
         <v>26.866666666666813</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="K46">
         <f>K43+K44*300</f>
         <v>243143333.33333468</v>
@@ -15224,26 +15225,26 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.4140625" customWidth="1"/>
+    <col min="9" max="9" width="9.25" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
     <col min="13" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="15" max="15" width="8.4140625" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" customWidth="1"/>
+    <col min="17" max="17" width="7.75" customWidth="1"/>
+    <col min="18" max="18" width="11.58203125" customWidth="1"/>
+    <col min="19" max="19" width="9.08203125" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="11.58203125" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>126</v>
       </c>
@@ -15251,7 +15252,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>123</v>
       </c>
@@ -15301,7 +15302,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>10</v>
       </c>
@@ -15345,7 +15346,7 @@
       </c>
       <c r="T4" s="41"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D5">
         <f>C4*C4*10</f>
         <v>1000</v>
@@ -15406,7 +15407,7 @@
         <v>-0.19768518518518519</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="J6">
         <v>3</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>-7.8727808240795616E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="J7">
         <v>4</v>
       </c>
@@ -15512,7 +15513,7 @@
         <v>4.7963644539871075E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>127</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>2.7710981609111642E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>90</v>
       </c>
@@ -15627,7 +15628,7 @@
         <v>3.3261790055438049E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>1</v>
       </c>
@@ -15687,7 +15688,7 @@
         <v>3.4982113190733057E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>2</v>
       </c>
@@ -15747,7 +15748,7 @@
         <v>3.5407769593867988E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>3</v>
       </c>
@@ -15807,7 +15808,7 @@
         <v>3.5606127026490013E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>4</v>
       </c>
@@ -15867,7 +15868,7 @@
         <v>3.5677335349373389E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>5</v>
       </c>
@@ -15927,7 +15928,7 @@
         <v>3.577190433145231E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>6</v>
       </c>
@@ -15987,7 +15988,7 @@
         <v>3.586302178675415E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>7</v>
       </c>
@@ -16039,7 +16040,7 @@
         <v>3.5985408238146728E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>8</v>
       </c>
@@ -16048,7 +16049,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>9</v>
       </c>
@@ -16057,7 +16058,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>10</v>
       </c>
@@ -16066,7 +16067,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>11</v>
       </c>
@@ -16075,7 +16076,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>12</v>
       </c>
@@ -16084,7 +16085,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>13</v>
       </c>
@@ -16093,7 +16094,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>14</v>
       </c>
@@ -16102,7 +16103,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>15</v>
       </c>
@@ -16120,7 +16121,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>16</v>
       </c>
@@ -16141,7 +16142,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>17</v>
       </c>
@@ -16165,7 +16166,7 @@
         <v>通用轻甲攻击套</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>18</v>
       </c>
@@ -16189,7 +16190,7 @@
         <v>通用轻甲一般套</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>19</v>
       </c>
@@ -16213,7 +16214,7 @@
         <v>通用轻甲物防套</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>20</v>
       </c>
@@ -16237,7 +16238,7 @@
         <v>通用轻甲魔抗套</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>21</v>
       </c>
@@ -16261,7 +16262,7 @@
         <v>通用轻甲血防套</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>22</v>
       </c>
@@ -16282,7 +16283,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>23</v>
       </c>
@@ -16306,7 +16307,7 @@
         <v>刀剑轻甲攻击套</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>24</v>
       </c>
@@ -16330,7 +16331,7 @@
         <v>刀剑轻甲一般套</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>25</v>
       </c>
@@ -16354,7 +16355,7 @@
         <v>刀剑轻甲物防套</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>26</v>
       </c>
@@ -16378,7 +16379,7 @@
         <v>刀剑轻甲魔抗套</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>27</v>
       </c>
@@ -16402,7 +16403,7 @@
         <v>刀剑轻甲血防套</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>28</v>
       </c>
@@ -16423,7 +16424,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>29</v>
       </c>
@@ -16447,7 +16448,7 @@
         <v>枪械轻甲攻击套</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>30</v>
       </c>
@@ -16471,7 +16472,7 @@
         <v>枪械轻甲一般套</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>31</v>
       </c>
@@ -16495,7 +16496,7 @@
         <v>枪械轻甲物防套</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>32</v>
       </c>
@@ -16519,7 +16520,7 @@
         <v>枪械轻甲魔抗套</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>33</v>
       </c>
@@ -16543,7 +16544,7 @@
         <v>枪械轻甲血防套</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>34</v>
       </c>
@@ -16564,7 +16565,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>35</v>
       </c>
@@ -16588,7 +16589,7 @@
         <v>拳皇轻甲攻击套</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>36</v>
       </c>
@@ -16612,7 +16613,7 @@
         <v>拳皇轻甲一般套</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>37</v>
       </c>
@@ -16636,7 +16637,7 @@
         <v>拳皇轻甲物防套</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>38</v>
       </c>
@@ -16660,7 +16661,7 @@
         <v>拳皇轻甲魔抗套</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>39</v>
       </c>
@@ -16684,7 +16685,7 @@
         <v>拳皇轻甲血防套</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>40</v>
       </c>
@@ -16705,7 +16706,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>41</v>
       </c>
@@ -16729,7 +16730,7 @@
         <v>刀内力轻甲攻击套</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>42</v>
       </c>
@@ -16753,7 +16754,7 @@
         <v>刀内力轻甲一般套</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>43</v>
       </c>
@@ -16777,7 +16778,7 @@
         <v>刀内力轻甲物防套</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>44</v>
       </c>
@@ -16801,7 +16802,7 @@
         <v>刀内力轻甲魔抗套</v>
       </c>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>45</v>
       </c>
@@ -16825,7 +16826,7 @@
         <v>刀内力轻甲血防套</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>46</v>
       </c>
@@ -16846,7 +16847,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>47</v>
       </c>
@@ -16870,7 +16871,7 @@
         <v>拳内力轻甲攻击套</v>
       </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>48</v>
       </c>
@@ -16894,7 +16895,7 @@
         <v>拳内力轻甲一般套</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>49</v>
       </c>
@@ -16918,7 +16919,7 @@
         <v>拳内力轻甲物防套</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>50</v>
       </c>
@@ -16942,7 +16943,7 @@
         <v>拳内力轻甲魔抗套</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>51</v>
       </c>
@@ -16966,7 +16967,7 @@
         <v>拳内力轻甲血防套</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>52</v>
       </c>
@@ -16975,7 +16976,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>53</v>
       </c>
@@ -16984,7 +16985,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>54</v>
       </c>
@@ -16993,7 +16994,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>55</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>56</v>
       </c>
@@ -17011,7 +17012,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>57</v>
       </c>
@@ -17020,7 +17021,7 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>58</v>
       </c>
@@ -17029,7 +17030,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>59</v>
       </c>
@@ -17038,7 +17039,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>60</v>
       </c>
@@ -17047,7 +17048,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>61</v>
       </c>
@@ -17056,7 +17057,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>62</v>
       </c>
@@ -17065,7 +17066,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>63</v>
       </c>
@@ -17074,7 +17075,7 @@
         <v>575000</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>64</v>
       </c>
@@ -17083,7 +17084,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>65</v>
       </c>
@@ -17092,7 +17093,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>66</v>
       </c>
@@ -17101,7 +17102,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>67</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>68</v>
       </c>
@@ -17119,7 +17120,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>69</v>
       </c>
@@ -17128,7 +17129,7 @@
         <v>725000</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>70</v>
       </c>
@@ -17137,7 +17138,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>71</v>
       </c>
@@ -17146,7 +17147,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>72</v>
       </c>
@@ -17155,7 +17156,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>73</v>
       </c>
@@ -17164,7 +17165,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>74</v>
       </c>
@@ -17173,7 +17174,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>75</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>875000</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85">
         <v>76</v>
       </c>
@@ -17191,7 +17192,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86">
         <v>77</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87">
         <v>78</v>
       </c>
@@ -17209,7 +17210,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88">
         <v>79</v>
       </c>
@@ -17218,7 +17219,7 @@
         <v>975000</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89">
         <v>80</v>
       </c>
@@ -17227,7 +17228,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90">
         <v>81</v>
       </c>
@@ -17236,7 +17237,7 @@
         <v>1025000</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91">
         <v>82</v>
       </c>
@@ -17245,7 +17246,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92">
         <v>83</v>
       </c>
@@ -17254,7 +17255,7 @@
         <v>1075000</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>84</v>
       </c>
@@ -17263,7 +17264,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>85</v>
       </c>
@@ -17272,7 +17273,7 @@
         <v>1125000</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>86</v>
       </c>
@@ -17281,7 +17282,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>87</v>
       </c>
@@ -17290,7 +17291,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>88</v>
       </c>
@@ -17299,7 +17300,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>89</v>
       </c>
@@ -17308,7 +17309,7 @@
         <v>1225000</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>90</v>
       </c>
@@ -17317,7 +17318,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>91</v>
       </c>
@@ -17326,7 +17327,7 @@
         <v>1275000</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>92</v>
       </c>
@@ -17335,7 +17336,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>93</v>
       </c>
@@ -17344,7 +17345,7 @@
         <v>1325000</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103">
         <v>94</v>
       </c>
@@ -17353,7 +17354,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104">
         <v>95</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>1375000</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105">
         <v>96</v>
       </c>
@@ -17371,7 +17372,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106">
         <v>97</v>
       </c>
@@ -17380,7 +17381,7 @@
         <v>1425000</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107">
         <v>98</v>
       </c>
@@ -17389,7 +17390,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108">
         <v>99</v>
       </c>
@@ -17398,7 +17399,7 @@
         <v>1475000</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109">
         <v>100</v>
       </c>
@@ -17422,33 +17423,34 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="10" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="8" max="8" width="8.08203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.75" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.08203125" customWidth="1"/>
     <col min="22" max="22" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C1" s="29" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -17477,7 +17479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -17545,7 +17547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>267</v>
       </c>
@@ -17611,7 +17613,7 @@
         <v>1.0932721712538227</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -17672,7 +17674,7 @@
         <v>0.64853932584269658</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -17684,7 +17686,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>148</v>
       </c>
@@ -17750,7 +17752,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>150</v>
       </c>
@@ -17814,7 +17816,7 @@
         <v>0.9010989010989009</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>151</v>
       </c>
@@ -17878,7 +17880,7 @@
         <v>1.0025706940874035</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>158</v>
       </c>
@@ -17893,7 +17895,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>155</v>
       </c>
@@ -17911,7 +17913,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>156</v>
       </c>
@@ -17926,7 +17928,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>157</v>
       </c>
@@ -17992,7 +17994,7 @@
         <v>1.2587412587412585</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>149</v>
       </c>
@@ -18058,7 +18060,7 @@
         <v>1.118279569892473</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>159</v>
       </c>
@@ -18122,25 +18124,25 @@
         <v>1.6709511568123394</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
@@ -18203,7 +18205,7 @@
         <v>3.0517374517374516</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -18264,10 +18266,10 @@
         <v>1.777665231704229</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>40</v>
       </c>
@@ -18275,16 +18277,16 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="D25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>41</v>
       </c>
@@ -18292,42 +18294,42 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>141</v>
       </c>
@@ -18350,25 +18352,25 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="10.08203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.9140625" customWidth="1"/>
+    <col min="6" max="6" width="6.75" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="19" max="20" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.58203125" customWidth="1"/>
+    <col min="13" max="13" width="12.08203125" customWidth="1"/>
+    <col min="19" max="20" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>184</v>
       </c>
@@ -18397,7 +18399,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -18459,7 +18461,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
@@ -18517,7 +18519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>178</v>
@@ -18573,7 +18575,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>263</v>
@@ -18629,7 +18631,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
@@ -18688,7 +18690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>150</v>
       </c>
@@ -18747,7 +18749,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>151</v>
       </c>
@@ -18806,7 +18808,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>158</v>
       </c>
@@ -18865,7 +18867,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>149</v>
       </c>
@@ -18924,7 +18926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>159</v>
       </c>
@@ -18940,7 +18942,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>196</v>
       </c>
@@ -18961,7 +18963,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -18977,7 +18979,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -18999,7 +19001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>493</v>
       </c>
@@ -19057,7 +19059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -19070,7 +19072,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>194</v>
       </c>
@@ -19126,7 +19128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>260</v>
@@ -19180,7 +19182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -19201,7 +19203,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="24" t="s">
         <v>236</v>
@@ -19226,10 +19228,10 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
@@ -19237,16 +19239,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>41</v>
       </c>
@@ -19254,37 +19256,37 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>325</v>
       </c>
@@ -19310,19 +19312,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>14</v>
       </c>
@@ -19342,7 +19344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>39</v>
       </c>
@@ -19366,7 +19368,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -19390,32 +19392,32 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>326</v>
       </c>
@@ -19429,7 +19431,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>329</v>
       </c>
@@ -19459,15 +19461,15 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -19475,7 +19477,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -19502,7 +19504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>3000</v>
       </c>
@@ -19523,7 +19525,7 @@
         <v>3181.9805153394641</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>1800</v>
       </c>
@@ -19544,7 +19546,7 @@
         <v>1815.2460833714163</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
@@ -19568,12 +19570,12 @@
         <v>2640.6704633232384</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -19593,7 +19595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>1000</v>
       </c>
@@ -19611,7 +19613,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
@@ -19632,7 +19634,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="42" t="s">
         <v>277</v>
       </c>
@@ -19652,20 +19654,20 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>80</v>
       </c>
@@ -19694,7 +19696,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>87</v>
       </c>
@@ -19726,7 +19728,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>86</v>
       </c>
@@ -19758,7 +19760,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -19790,15 +19792,15 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -19811,18 +19813,18 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>93600</v>
+        <v>78000</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="1"/>
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="N8">
         <f>J8/K8</f>
-        <v>34.666666666666664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>275</v>
       </c>
@@ -19830,7 +19832,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>315</v>
       </c>
@@ -19838,17 +19840,17 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>81</v>
       </c>
@@ -19880,7 +19882,7 @@
         <v>30.814814814814813</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>10</v>
       </c>
@@ -19906,7 +19908,7 @@
         <v>28.888888888888889</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>32</v>
       </c>
@@ -19932,7 +19934,7 @@
         <v>30.814814814814813</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
@@ -19961,37 +19963,37 @@
         <v>28.888888888888889</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>314</v>
       </c>
@@ -20011,29 +20013,29 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.9140625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="21" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.08203125" customWidth="1"/>
+    <col min="8" max="8" width="8.58203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="12.08203125" customWidth="1"/>
+    <col min="13" max="13" width="6.08203125" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="13.9140625" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -20056,7 +20058,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>49</v>
       </c>
@@ -20106,7 +20108,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
@@ -20147,7 +20149,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>177</v>
@@ -20186,7 +20188,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
@@ -20199,7 +20201,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>150</v>
       </c>
@@ -20217,7 +20219,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>151</v>
       </c>
@@ -20230,7 +20232,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>158</v>
       </c>
@@ -20253,7 +20255,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>149</v>
       </c>
@@ -20278,7 +20280,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>159</v>
       </c>
@@ -20301,7 +20303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>374</v>
       </c>
@@ -20314,7 +20316,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>223</v>
       </c>
@@ -20347,7 +20349,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" t="s">
         <v>227</v>
@@ -20382,7 +20384,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="D14" t="s">
         <v>228</v>
@@ -20407,7 +20409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>177</v>
@@ -20439,7 +20441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="D16" t="s">
         <v>232</v>
@@ -20464,7 +20466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="D17" t="s">
         <v>233</v>
@@ -20489,7 +20491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
@@ -20515,7 +20517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="24" t="s">
         <v>236</v>
@@ -20524,16 +20526,16 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="D20" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>373</v>
       </c>
@@ -20574,7 +20576,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>227</v>
@@ -20619,7 +20621,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
         <v>25</v>
@@ -20664,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
@@ -20703,7 +20705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
@@ -20742,7 +20744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>236</v>
@@ -20759,7 +20761,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
@@ -20771,13 +20773,13 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="D29" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
@@ -20785,16 +20787,16 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -20820,17 +20822,17 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="8.25" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D2" s="33" t="s">
         <v>430</v>
       </c>
@@ -20862,7 +20864,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>335</v>
       </c>
@@ -20899,7 +20901,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>355</v>
       </c>
@@ -20936,7 +20938,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>359</v>
       </c>
@@ -20973,7 +20975,7 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>334</v>
       </c>
@@ -21010,7 +21012,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="24" t="s">
         <v>236</v>
       </c>
@@ -21018,22 +21020,22 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I11" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I12" s="33" t="s">
         <v>340</v>
       </c>
@@ -21050,7 +21052,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
         <v>429</v>
       </c>
@@ -21075,7 +21077,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D14" s="33" t="s">
         <v>410</v>
       </c>
@@ -21106,7 +21108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>409</v>
       </c>
@@ -21127,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>412</v>
       </c>
@@ -21148,7 +21150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>413</v>
       </c>
@@ -21169,7 +21171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>415</v>
       </c>
@@ -21193,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>416</v>
       </c>
@@ -21217,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>417</v>
       </c>
@@ -21241,7 +21243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>418</v>
       </c>
@@ -21265,7 +21267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>419</v>
       </c>
@@ -21286,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>428</v>
       </c>
@@ -21294,7 +21296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>421</v>
       </c>
@@ -21305,7 +21307,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I25" s="33" t="s">
         <v>225</v>
       </c>
@@ -21331,7 +21333,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
         <v>87</v>
       </c>
@@ -21362,7 +21364,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="H27" s="1" t="s">
         <v>364</v>
       </c>
@@ -21393,7 +21395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I28" s="46" t="s">
         <v>366</v>
       </c>
@@ -21417,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I29" s="46" t="s">
         <v>367</v>
       </c>
@@ -21441,7 +21443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I30" s="46" t="s">
         <v>368</v>
       </c>
@@ -21465,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I31" s="46" t="s">
         <v>369</v>
       </c>
@@ -21489,7 +21491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I32" s="46" t="s">
         <v>427</v>
       </c>
@@ -21527,34 +21529,34 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="5.9140625" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="7.9140625" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="8.08203125" customWidth="1"/>
+    <col min="8" max="8" width="8.58203125" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="7.9140625" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="6.58203125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="19" max="19" width="9.9140625" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C2" s="33" t="s">
         <v>410</v>
       </c>
@@ -21616,7 +21618,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>480</v>
       </c>
@@ -21691,7 +21693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>496</v>
       </c>
@@ -21766,7 +21768,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>482</v>
       </c>
@@ -21841,7 +21843,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>484</v>
       </c>
@@ -21916,7 +21918,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>481</v>
       </c>
@@ -21991,7 +21993,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>472</v>
       </c>
@@ -22066,7 +22068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>483</v>
       </c>
@@ -22077,7 +22079,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -22087,7 +22089,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>149</v>
       </c>
@@ -22096,35 +22098,35 @@
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>410</v>
       </c>
@@ -22132,7 +22134,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
         <v>410</v>
       </c>
@@ -22152,7 +22154,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>409</v>
       </c>
@@ -22169,7 +22171,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>412</v>
       </c>
@@ -22186,7 +22188,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>413</v>
       </c>
@@ -22203,7 +22205,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>415</v>
       </c>
@@ -22223,7 +22225,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>416</v>
       </c>
@@ -22243,7 +22245,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>417</v>
       </c>
@@ -22266,7 +22268,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>418</v>
       </c>
@@ -22292,7 +22294,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>419</v>
       </c>
@@ -22315,7 +22317,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>420</v>
       </c>
@@ -22338,7 +22340,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>421</v>
       </c>
@@ -22361,7 +22363,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="42" t="s">
         <v>503</v>
       </c>
@@ -22369,7 +22371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>474</v>
       </c>
@@ -22390,7 +22392,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K33" s="2" t="s">
         <v>445</v>
       </c>
@@ -22410,29 +22412,29 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.9140625" customWidth="1"/>
+    <col min="11" max="11" width="4.9140625" customWidth="1"/>
+    <col min="12" max="12" width="9.4140625" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>90</v>
       </c>
@@ -22464,7 +22466,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -22501,7 +22503,7 @@
         <v>10762.71186440678</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -22535,7 +22537,7 @@
         <v>11525.423728813559</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3</v>
       </c>
@@ -22569,7 +22571,7 @@
         <v>12288.135593220339</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>4</v>
       </c>
@@ -22587,7 +22589,7 @@
         <v>13050.847457627118</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -22605,7 +22607,7 @@
         <v>13813.559322033898</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6</v>
       </c>
@@ -22623,7 +22625,7 @@
         <v>14576.271186440677</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>7</v>
       </c>
@@ -22641,7 +22643,7 @@
         <v>15338.983050847459</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>8</v>
       </c>
@@ -22659,7 +22661,7 @@
         <v>16101.694915254237</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>9</v>
       </c>
@@ -22677,7 +22679,7 @@
         <v>16864.406779661018</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>10</v>
       </c>
@@ -22695,7 +22697,7 @@
         <v>17627.118644067796</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -22716,7 +22718,7 @@
         <v>348.81355932203388</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -22734,7 +22736,7 @@
         <v>687.62711864406776</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>3</v>
       </c>
@@ -22752,7 +22754,7 @@
         <v>1026.4406779661017</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>4</v>
       </c>
@@ -22770,7 +22772,7 @@
         <v>1365.2542372881355</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>5</v>
       </c>
@@ -22788,7 +22790,7 @@
         <v>1704.0677966101694</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>6</v>
       </c>
@@ -22806,7 +22808,7 @@
         <v>2042.8813559322034</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -22824,7 +22826,7 @@
         <v>2381.694915254237</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>8</v>
       </c>
@@ -22849,7 +22851,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>9</v>
       </c>
@@ -22867,7 +22869,7 @@
         <v>3059.3220338983051</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>10</v>
       </c>
@@ -22885,7 +22887,7 @@
         <v>3398.1355932203387</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>11</v>
       </c>
@@ -22903,7 +22905,7 @@
         <v>3736.9491525423728</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>12</v>
       </c>
@@ -22921,7 +22923,7 @@
         <v>4075.7627118644068</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>13</v>
       </c>
@@ -22939,7 +22941,7 @@
         <v>4414.5762711864409</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>14</v>
       </c>
@@ -22957,7 +22959,7 @@
         <v>4753.389830508474</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>15</v>
       </c>
@@ -22975,7 +22977,7 @@
         <v>5092.2033898305081</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>16</v>
       </c>
@@ -22993,7 +22995,7 @@
         <v>5431.0169491525421</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>17</v>
       </c>
@@ -23011,7 +23013,7 @@
         <v>5769.8305084745762</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>18</v>
       </c>
@@ -23029,7 +23031,7 @@
         <v>6108.6440677966102</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>19</v>
       </c>
@@ -23047,7 +23049,7 @@
         <v>6447.4576271186434</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>20</v>
       </c>
@@ -23065,7 +23067,7 @@
         <v>6786.2711864406774</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>21</v>
       </c>
@@ -23083,7 +23085,7 @@
         <v>7125.0847457627115</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>22</v>
       </c>
@@ -23101,7 +23103,7 @@
         <v>7463.8983050847455</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>23</v>
       </c>
@@ -23119,7 +23121,7 @@
         <v>7802.7118644067796</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>24</v>
       </c>
@@ -23137,7 +23139,7 @@
         <v>8141.5254237288136</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>25</v>
       </c>
@@ -23155,7 +23157,7 @@
         <v>8480.3389830508477</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>26</v>
       </c>
@@ -23173,7 +23175,7 @@
         <v>8819.1525423728817</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>27</v>
       </c>
@@ -23191,7 +23193,7 @@
         <v>9157.966101694914</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>28</v>
       </c>
@@ -23209,7 +23211,7 @@
         <v>9496.779661016948</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>29</v>
       </c>
@@ -23227,7 +23229,7 @@
         <v>9835.5932203389821</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>30</v>
       </c>
@@ -23252,7 +23254,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>31</v>
       </c>
@@ -23270,7 +23272,7 @@
         <v>10513.22033898305</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>32</v>
       </c>
@@ -23288,7 +23290,7 @@
         <v>10852.033898305084</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>33</v>
       </c>
@@ -23306,7 +23308,7 @@
         <v>11190.847457627118</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>34</v>
       </c>
@@ -23324,7 +23326,7 @@
         <v>11529.661016949152</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>35</v>
       </c>
@@ -23342,7 +23344,7 @@
         <v>11868.474576271186</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>36</v>
       </c>
@@ -23360,7 +23362,7 @@
         <v>12207.28813559322</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>37</v>
       </c>
@@ -23378,7 +23380,7 @@
         <v>12546.101694915254</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>38</v>
       </c>
@@ -23396,7 +23398,7 @@
         <v>12884.915254237287</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>39</v>
       </c>
@@ -23414,7 +23416,7 @@
         <v>13223.728813559321</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>40</v>
       </c>
@@ -23439,7 +23441,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68">
         <f>SUM(F20:F128)</f>
         <v>278227.11864406784</v>
